--- a/data/trans_camb/P7_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P7_R-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,6 +529,12 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -546,22 +552,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +595,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M5/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -642,6 +684,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +704,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,51</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
+          <t>-0,18</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>1,4</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>-3,74</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>-0,83</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-0,15</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-0,73</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-1,74</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-1,35</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-0,7</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1,01</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>0,28</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>-1,0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>-0,05</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>-2,12</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
           <t>0,11</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-1,53</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,04</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-0,57</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-1,38</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-3,06</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>0,43</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>0,4</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>-0,68</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>-2,29</t>
         </is>
       </c>
     </row>
@@ -724,62 +802,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 4,27</t>
+          <t>-2,05; 4,07</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 4,48</t>
+          <t>-1,83; 4,51</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 3,47</t>
+          <t>-3,32; 3,3</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 1,86</t>
+          <t>-1,65; 4,73</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,5; 3,3</t>
+          <t>-6,58; -0,15</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 2,52</t>
+          <t>-3,66; 2,59</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-4,43; 1,65</t>
+          <t>-3,56; 2,82</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-7,35; 0,46</t>
+          <t>-3,9; 2,31</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 2,92</t>
+          <t>-4,89; 1,48</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 2,71</t>
+          <t>-4,8; 2,52</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 1,86</t>
+          <t>-4,44; 2,74</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>-4,92; 0,3</t>
+          <t>-2,8; 4,95</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-2,0; 2,36</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-2,08; 2,3</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-3,28; 1,42</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>-2,46; 2,51</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>-4,61; 0,54</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>-2,49; 2,65</t>
         </is>
       </c>
     </row>
@@ -792,62 +900,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,94%</t>
+          <t>0,81%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,64%</t>
+          <t>1,15%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,12%</t>
+          <t>-0,19%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-1,66%</t>
+          <t>1,52%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,05%</t>
+          <t>-4,02%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-0,64%</t>
+          <t>-0,91%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-1,53%</t>
+          <t>-0,17%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-3,39%</t>
+          <t>-0,81%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,47%</t>
+          <t>-1,92%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,44%</t>
+          <t>-1,5%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>-0,75%</t>
+          <t>-0,79%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>-2,51%</t>
+          <t>1,16%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>0,3%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>0,11%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>-1,1%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>-0,05%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>-2,34%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>0,13%</t>
         </is>
       </c>
     </row>
@@ -860,62 +998,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 4,75</t>
+          <t>-2,16; 4,6</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 4,98</t>
+          <t>-1,94; 5,06</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 3,84</t>
+          <t>-3,55; 3,68</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,81; 2,07</t>
+          <t>-1,76; 5,29</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 3,74</t>
+          <t>-7,01; -0,17</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 2,85</t>
+          <t>-4,01; 2,95</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-4,85; 1,85</t>
+          <t>-3,89; 3,14</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-7,99; 0,57</t>
+          <t>-4,24; 2,59</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 3,24</t>
+          <t>-5,32; 1,67</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 3,02</t>
+          <t>-5,29; 2,86</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>-3,07; 2,07</t>
+          <t>-4,88; 3,16</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>-5,33; 0,35</t>
+          <t>-3,11; 5,91</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-2,18; 2,64</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-2,26; 2,55</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-3,57; 1,58</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>-2,67; 2,81</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>-5,02; 0,54</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>-2,75; 3,03</t>
         </is>
       </c>
     </row>
@@ -932,62 +1100,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,14</t>
+          <t>-0,32</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,15</t>
+          <t>-2,18</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,87</t>
+          <t>-1,84</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>-3,83</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-1,23</t>
+          <t>-0,68</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,03</t>
+          <t>-4,57</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-1,38</t>
+          <t>-1,31</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-2,74</t>
+          <t>-0,88</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-0,69</t>
+          <t>-1,28</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>-1,59</t>
+          <t>-3,11</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>-1,62</t>
+          <t>-1,61</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>-1,26</t>
+          <t>-1,99</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>-0,82</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>-1,53</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>-1,56</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>-3,47</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>-1,14</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>-3,34</t>
         </is>
       </c>
     </row>
@@ -1000,62 +1198,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 3,29</t>
+          <t>-4,38; 3,03</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,85; 1,45</t>
+          <t>-5,73; 1,12</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,48; 1,33</t>
+          <t>-5,32; 1,24</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 3,41</t>
+          <t>-9,02; 0,08</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 2,16</t>
+          <t>-5,88; 5,28</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,4; 2,46</t>
+          <t>-9,87; -0,04</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,94; 2,21</t>
+          <t>-4,62; 2,14</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-9,14; 1,98</t>
+          <t>-4,43; 2,56</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 1,83</t>
+          <t>-4,63; 2,08</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 0,76</t>
+          <t>-6,99; 0,5</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 0,71</t>
+          <t>-7,25; 3,06</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 1,8</t>
+          <t>-8,07; 5,06</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-3,02; 1,7</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-4,04; 0,95</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-4,04; 0,7</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>-6,67; -0,43</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>-5,2; 2,99</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>-7,61; 1,15</t>
         </is>
       </c>
     </row>
@@ -1068,62 +1296,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,15%</t>
+          <t>-0,34%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-2,3%</t>
+          <t>-2,33%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-2,0%</t>
+          <t>-1,96%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,07%</t>
+          <t>-4,09%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-1,32%</t>
+          <t>-0,76%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-1,11%</t>
+          <t>-4,88%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-1,47%</t>
+          <t>-1,4%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-2,93%</t>
+          <t>-0,94%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-0,74%</t>
+          <t>-1,37%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>-1,7%</t>
+          <t>-3,33%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>-1,74%</t>
+          <t>-1,79%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>-1,35%</t>
+          <t>-2,19%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-0,87%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>-1,64%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>-1,67%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>-3,71%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>-1,27%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>-3,62%</t>
         </is>
       </c>
     </row>
@@ -1136,62 +1394,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,95; 3,55</t>
+          <t>-4,61; 3,3</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,21; 1,55</t>
+          <t>-6,0; 1,25</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,77; 1,45</t>
+          <t>-5,6; 1,34</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 3,75</t>
+          <t>-9,6; 0,07</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-4,72; 2,33</t>
+          <t>-6,39; 5,96</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-4,6; 2,69</t>
+          <t>-10,31; -0,02</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-5,2; 2,42</t>
+          <t>-4,92; 2,36</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-9,72; 2,15</t>
+          <t>-4,65; 2,79</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 2,0</t>
+          <t>-4,91; 2,28</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 0,81</t>
+          <t>-7,34; 0,54</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>-4,34; 0,77</t>
+          <t>-7,96; 3,44</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>-4,88; 1,93</t>
+          <t>-8,61; 5,89</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-3,22; 1,82</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-4,27; 1,04</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-4,27; 0,75</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>-7,08; -0,48</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>-5,71; 3,41</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>-8,19; 1,25</t>
         </is>
       </c>
     </row>
@@ -1208,60 +1496,90 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,91</t>
+          <t>1,51</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,43</t>
+          <t>-1,44</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,95</t>
+          <t>-1,74</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>-1,06</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>0,96</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-3,03</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-5,42</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
+          <t>-3,17</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-5,35</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-5,09</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>1,44</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>-2,22</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>-3,66</t>
-        </is>
-      </c>
       <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>1,07</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>-2,3</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>-3,53</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>-3,05</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
@@ -1276,60 +1594,90 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 8,2</t>
+          <t>-4,81; 7,71</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,46; 4,83</t>
+          <t>-7,97; 4,76</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,74; 4,83</t>
+          <t>-8,02; 5,1</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>-8,77; 6,43</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-3,24; 5,13</t>
-        </is>
-      </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-9,25; 1,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-11,92; 0,11</t>
+          <t>-3,83; 4,35</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
+          <t>-8,86; 1,3</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-11,96; -0,22</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-14,6; 0,65</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>-2,07; 5,06</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>-6,76; 1,44</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>-8,1; 0,61</t>
-        </is>
-      </c>
       <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-2,44; 4,88</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-6,36; 1,85</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-7,93; 0,47</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>-8,47; 1,88</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1344,60 +1692,90 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2,08%</t>
+          <t>1,64%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-1,55%</t>
+          <t>-1,56%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-2,12%</t>
+          <t>-1,9%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>-1,16%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>0,99%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-3,15%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-5,63%</t>
+          <t>0,64%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
+          <t>-3,3%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-5,57%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-5,29%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>1,53%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>-2,36%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>-3,89%</t>
-        </is>
-      </c>
       <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>1,14%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>-2,44%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>-3,75%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>-3,24%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1412,60 +1790,90 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 9,39</t>
+          <t>-5,01; 8,72</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-8,92; 5,42</t>
+          <t>-8,39; 5,43</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-9,44; 5,39</t>
+          <t>-8,5; 5,66</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>-9,17; 7,2</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-3,35; 5,46</t>
-        </is>
-      </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-9,46; 1,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-12,3; 0,07</t>
+          <t>-3,9; 4,63</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
+          <t>-9,06; 1,38</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-12,22; -0,23</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-15,13; 0,58</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>-2,17; 5,53</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>-7,05; 1,57</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>-8,52; 0,63</t>
-        </is>
-      </c>
       <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-2,56; 5,32</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-6,72; 2,04</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-8,35; 0,5</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>-8,94; 2,03</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1484,62 +1892,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,58</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,32</t>
+          <t>-0,55</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,94</t>
+          <t>-1,04</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-1,44</t>
+          <t>-1,0</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,36</t>
+          <t>-2,15</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-1,06</t>
+          <t>-1,73</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-1,86</t>
+          <t>-0,53</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-4,2</t>
+          <t>-1,1</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>-2,0</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>-0,7</t>
+          <t>-2,47</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>-1,41</t>
+          <t>-1,37</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>-2,82</t>
+          <t>0,36</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>-0,07</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>-0,83</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>-1,53</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>-1,75</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>-1,74</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>-0,68</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1990,92 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 2,82</t>
+          <t>-1,64; 2,63</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 1,68</t>
+          <t>-2,64; 1,71</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 1,32</t>
+          <t>-3,05; 1,25</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 0,86</t>
+          <t>-3,76; 1,47</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 1,66</t>
+          <t>-4,88; 0,65</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,18; 0,92</t>
+          <t>-4,74; 0,99</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 0,43</t>
+          <t>-2,68; 1,57</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-7,85; -1,55</t>
+          <t>-3,18; 0,96</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 1,66</t>
+          <t>-4,0; 0,35</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 0,74</t>
+          <t>-4,99; -0,03</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 0,22</t>
+          <t>-4,24; 1,74</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>-4,99; -0,96</t>
+          <t>-2,94; 4,13</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-1,52; 1,47</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-2,2; 0,74</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-3,08; 0,02</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>-3,68; -0,03</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>-3,78; 0,33</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>-3,11; 1,51</t>
         </is>
       </c>
     </row>
@@ -1620,62 +2088,92 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,63%</t>
+          <t>0,44%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-0,35%</t>
+          <t>-0,59%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-1,01%</t>
+          <t>-1,12%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-1,55%</t>
+          <t>-1,08%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-0,39%</t>
+          <t>-2,35%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-1,15%</t>
+          <t>-1,89%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-2,02%</t>
+          <t>-0,57%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-4,56%</t>
+          <t>-1,19%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>0,11%</t>
+          <t>-2,17%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
+          <t>-2,68%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-1,53%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0,41%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>-0,07%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>-0,9%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>-1,65%</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>-1,9%</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>-1,92%</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
           <t>-0,76%</t>
-        </is>
-      </c>
-      <c r="M18" s="2" t="inlineStr">
-        <is>
-          <t>-1,53%</t>
-        </is>
-      </c>
-      <c r="N18" s="2" t="inlineStr">
-        <is>
-          <t>-3,05%</t>
         </is>
       </c>
     </row>
@@ -1688,75 +2186,112 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 3,1</t>
+          <t>-1,76; 2,85</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 1,83</t>
+          <t>-2,82; 1,85</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 1,43</t>
+          <t>-3,26; 1,36</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 0,95</t>
+          <t>-4,03; 1,61</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 1,82</t>
+          <t>-5,26; 0,7</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 1,01</t>
+          <t>-5,1; 1,1</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 0,48</t>
+          <t>-2,87; 1,73</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-8,49; -1,75</t>
+          <t>-3,4; 1,06</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 1,82</t>
+          <t>-4,3; 0,37</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 0,82</t>
+          <t>-5,38; -0,07</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>-3,04; 0,25</t>
+          <t>-4,69; 1,96</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>-5,36; -1,06</t>
+          <t>-3,26; 4,78</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-1,63; 1,6</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-2,37; 0,8</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-3,3; 0,03</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>-3,95; -0,03</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>-4,15; 0,37</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>-3,42; 1,71</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
